--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H2">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I2">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J2">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N2">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O2">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P2">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q2">
-        <v>29.87445808473855</v>
+        <v>14.85381432529111</v>
       </c>
       <c r="R2">
-        <v>29.87445808473855</v>
+        <v>133.68432892762</v>
       </c>
       <c r="S2">
-        <v>0.08203875086790421</v>
+        <v>0.01902456744654667</v>
       </c>
       <c r="T2">
-        <v>0.08203875086790421</v>
+        <v>0.02145620367155242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H3">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I3">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J3">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N3">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O3">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P3">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q3">
-        <v>2.740088813481036</v>
+        <v>1.24615644888</v>
       </c>
       <c r="R3">
-        <v>2.740088813481036</v>
+        <v>11.21540803992</v>
       </c>
       <c r="S3">
-        <v>0.007524603890302474</v>
+        <v>0.001596060573498654</v>
       </c>
       <c r="T3">
-        <v>0.007524603890302474</v>
+        <v>0.001800061990021123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H4">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I4">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J4">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N4">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O4">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P4">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q4">
-        <v>67.29165461517928</v>
+        <v>38.05648476149333</v>
       </c>
       <c r="R4">
-        <v>67.29165461517928</v>
+        <v>342.50836285344</v>
       </c>
       <c r="S4">
-        <v>0.1847907424062673</v>
+        <v>0.04874223854345346</v>
       </c>
       <c r="T4">
-        <v>0.1847907424062673</v>
+        <v>0.0549722562961907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H5">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I5">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J5">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N5">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O5">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P5">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q5">
-        <v>80.15475973723927</v>
+        <v>31.33101591601</v>
       </c>
       <c r="R5">
-        <v>80.15475973723927</v>
+        <v>281.97914324409</v>
       </c>
       <c r="S5">
-        <v>0.2201143313230293</v>
+        <v>0.04012834766946488</v>
       </c>
       <c r="T5">
-        <v>0.2201143313230293</v>
+        <v>0.04525737591764236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H6">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I6">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J6">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.6369548462893</v>
+        <v>14.6138845</v>
       </c>
       <c r="N6">
-        <v>10.6369548462893</v>
+        <v>29.227769</v>
       </c>
       <c r="O6">
-        <v>0.06785007793165702</v>
+        <v>0.07586117355389271</v>
       </c>
       <c r="P6">
-        <v>0.06785007793165702</v>
+        <v>0.05188616413680445</v>
       </c>
       <c r="Q6">
-        <v>13.10642200794943</v>
+        <v>7.017538623951667</v>
       </c>
       <c r="R6">
-        <v>13.10642200794943</v>
+        <v>42.10523174371001</v>
       </c>
       <c r="S6">
-        <v>0.03599176550181731</v>
+        <v>0.008987969954141617</v>
       </c>
       <c r="T6">
-        <v>0.03599176550181731</v>
+        <v>0.006757848396875965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H7">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I7">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J7">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.245614975009</v>
+        <v>30.93277266666666</v>
       </c>
       <c r="N7">
-        <v>24.245614975009</v>
+        <v>92.79831799999999</v>
       </c>
       <c r="O7">
-        <v>0.1546558097996621</v>
+        <v>0.1605730793731885</v>
       </c>
       <c r="P7">
-        <v>0.1546558097996621</v>
+        <v>0.1647388399493432</v>
       </c>
       <c r="Q7">
-        <v>26.44354357353476</v>
+        <v>54.08788115049622</v>
       </c>
       <c r="R7">
-        <v>26.44354357353476</v>
+        <v>486.790930354466</v>
       </c>
       <c r="S7">
-        <v>0.07261705893175784</v>
+        <v>0.06927503740479463</v>
       </c>
       <c r="T7">
-        <v>0.07261705893175784</v>
+        <v>0.07812946686372584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H8">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I8">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J8">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.22381066061677</v>
+        <v>2.595096</v>
       </c>
       <c r="N8">
-        <v>2.22381066061677</v>
+        <v>7.785288</v>
       </c>
       <c r="O8">
-        <v>0.01418504908674441</v>
+        <v>0.01347123196744936</v>
       </c>
       <c r="P8">
-        <v>0.01418504908674441</v>
+        <v>0.01382071724394339</v>
       </c>
       <c r="Q8">
-        <v>2.425404930496668</v>
+        <v>4.537687116984</v>
       </c>
       <c r="R8">
-        <v>2.425404930496668</v>
+        <v>40.83918405285601</v>
       </c>
       <c r="S8">
-        <v>0.006660445196441932</v>
+        <v>0.005811809190411175</v>
       </c>
       <c r="T8">
-        <v>0.006660445196441932</v>
+        <v>0.0065546489842689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H9">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I9">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J9">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.6127914422118</v>
+        <v>79.25187199999999</v>
       </c>
       <c r="N9">
-        <v>54.6127914422118</v>
+        <v>237.755616</v>
       </c>
       <c r="O9">
-        <v>0.3483593010373697</v>
+        <v>0.4113991742758669</v>
       </c>
       <c r="P9">
-        <v>0.3483593010373697</v>
+        <v>0.4220721368169787</v>
       </c>
       <c r="Q9">
-        <v>59.56358424659666</v>
+        <v>138.5768382253547</v>
       </c>
       <c r="R9">
-        <v>59.56358424659666</v>
+        <v>1247.191544028192</v>
       </c>
       <c r="S9">
-        <v>0.1635685586311024</v>
+        <v>0.1774873677300917</v>
       </c>
       <c r="T9">
-        <v>0.1635685586311024</v>
+        <v>0.2001730195361593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H10">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I10">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J10">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.0522743371954</v>
+        <v>65.246217</v>
       </c>
       <c r="N10">
-        <v>65.0522743371954</v>
+        <v>195.738651</v>
       </c>
       <c r="O10">
-        <v>0.4149497621445666</v>
+        <v>0.3386953408296025</v>
       </c>
       <c r="P10">
-        <v>0.4149497621445666</v>
+        <v>0.3474821418529304</v>
       </c>
       <c r="Q10">
-        <v>70.94943365083793</v>
+        <v>114.087077438693</v>
       </c>
       <c r="R10">
-        <v>70.94943365083793</v>
+        <v>1026.783696948237</v>
       </c>
       <c r="S10">
-        <v>0.1948354308215373</v>
+        <v>0.1461212084640267</v>
       </c>
       <c r="T10">
-        <v>0.1948354308215373</v>
+        <v>0.1647977762620104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.748562333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.245687</v>
+      </c>
+      <c r="I11">
+        <v>0.4314237335125913</v>
+      </c>
+      <c r="J11">
+        <v>0.4742625775909947</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.6138845</v>
+      </c>
+      <c r="N11">
+        <v>29.227769</v>
+      </c>
+      <c r="O11">
+        <v>0.07586117355389271</v>
+      </c>
+      <c r="P11">
+        <v>0.05188616413680445</v>
+      </c>
+      <c r="Q11">
+        <v>25.55328798038384</v>
+      </c>
+      <c r="R11">
+        <v>153.319727882303</v>
+      </c>
+      <c r="S11">
+        <v>0.03272831072326705</v>
+      </c>
+      <c r="T11">
+        <v>0.02460766594483031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.482537</v>
+      </c>
+      <c r="I12">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J12">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>30.93277266666666</v>
+      </c>
+      <c r="N12">
+        <v>92.79831799999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1605730793731885</v>
+      </c>
+      <c r="P12">
+        <v>0.1647388399493432</v>
+      </c>
+      <c r="Q12">
+        <v>4.975402441418444</v>
+      </c>
+      <c r="R12">
+        <v>44.778621972766</v>
+      </c>
+      <c r="S12">
+        <v>0.006372429144971361</v>
+      </c>
+      <c r="T12">
+        <v>0.007186924906503508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.482537</v>
+      </c>
+      <c r="I13">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J13">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.595096</v>
+      </c>
+      <c r="N13">
+        <v>7.785288</v>
+      </c>
+      <c r="O13">
+        <v>0.01347123196744936</v>
+      </c>
+      <c r="P13">
+        <v>0.01382071724394339</v>
+      </c>
+      <c r="Q13">
+        <v>0.4174099461840001</v>
+      </c>
+      <c r="R13">
+        <v>3.756689515656</v>
+      </c>
+      <c r="S13">
+        <v>0.0005346130966856081</v>
+      </c>
+      <c r="T13">
+        <v>0.0006029449825965908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.482537</v>
+      </c>
+      <c r="I14">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J14">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>79.25187199999999</v>
+      </c>
+      <c r="N14">
+        <v>237.755616</v>
+      </c>
+      <c r="O14">
+        <v>0.4113991742758669</v>
+      </c>
+      <c r="P14">
+        <v>0.4220721368169787</v>
+      </c>
+      <c r="Q14">
+        <v>12.74732018642133</v>
+      </c>
+      <c r="R14">
+        <v>114.725881677792</v>
+      </c>
+      <c r="S14">
+        <v>0.0163265978245319</v>
+      </c>
+      <c r="T14">
+        <v>0.01841339148293059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.482537</v>
+      </c>
+      <c r="I15">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J15">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>65.246217</v>
+      </c>
+      <c r="N15">
+        <v>195.738651</v>
+      </c>
+      <c r="O15">
+        <v>0.3386953408296025</v>
+      </c>
+      <c r="P15">
+        <v>0.3474821418529304</v>
+      </c>
+      <c r="Q15">
+        <v>10.494571270843</v>
+      </c>
+      <c r="R15">
+        <v>94.451141437587</v>
+      </c>
+      <c r="S15">
+        <v>0.01344130703349362</v>
+      </c>
+      <c r="T15">
+        <v>0.01515931556041024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.482537</v>
+      </c>
+      <c r="I16">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J16">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.6138845</v>
+      </c>
+      <c r="N16">
+        <v>29.227769</v>
+      </c>
+      <c r="O16">
+        <v>0.07586117355389271</v>
+      </c>
+      <c r="P16">
+        <v>0.05188616413680445</v>
+      </c>
+      <c r="Q16">
+        <v>2.350579994992167</v>
+      </c>
+      <c r="R16">
+        <v>14.103479969953</v>
+      </c>
+      <c r="S16">
+        <v>0.00301059153385879</v>
+      </c>
+      <c r="T16">
+        <v>0.002263594702089656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.695328</v>
+      </c>
+      <c r="I17">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J17">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.93277266666666</v>
+      </c>
+      <c r="N17">
+        <v>92.79831799999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1605730793731885</v>
+      </c>
+      <c r="P17">
+        <v>0.1647388399493432</v>
+      </c>
+      <c r="Q17">
+        <v>17.48039853981156</v>
+      </c>
+      <c r="R17">
+        <v>157.323586858304</v>
+      </c>
+      <c r="S17">
+        <v>0.02238866150675701</v>
+      </c>
+      <c r="T17">
+        <v>0.02525028138338154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.09065262319769</v>
-      </c>
-      <c r="H11">
-        <v>1.09065262319769</v>
-      </c>
-      <c r="I11">
-        <v>0.4695398060106792</v>
-      </c>
-      <c r="J11">
-        <v>0.4695398060106792</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>10.6369548462893</v>
-      </c>
-      <c r="N11">
-        <v>10.6369548462893</v>
-      </c>
-      <c r="O11">
-        <v>0.06785007793165702</v>
-      </c>
-      <c r="P11">
-        <v>0.06785007793165702</v>
-      </c>
-      <c r="Q11">
-        <v>11.60122270594081</v>
-      </c>
-      <c r="R11">
-        <v>11.60122270594081</v>
-      </c>
-      <c r="S11">
-        <v>0.03185831242983971</v>
-      </c>
-      <c r="T11">
-        <v>0.03185831242983971</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.695328</v>
+      </c>
+      <c r="I18">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J18">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.595096</v>
+      </c>
+      <c r="N18">
+        <v>7.785288</v>
+      </c>
+      <c r="O18">
+        <v>0.01347123196744936</v>
+      </c>
+      <c r="P18">
+        <v>0.01382071724394339</v>
+      </c>
+      <c r="Q18">
+        <v>1.466512970496</v>
+      </c>
+      <c r="R18">
+        <v>13.198616734464</v>
+      </c>
+      <c r="S18">
+        <v>0.001878290269922966</v>
+      </c>
+      <c r="T18">
+        <v>0.002118365040308853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.695328</v>
+      </c>
+      <c r="I19">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J19">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>79.25187199999999</v>
+      </c>
+      <c r="N19">
+        <v>237.755616</v>
+      </c>
+      <c r="O19">
+        <v>0.4113991742758669</v>
+      </c>
+      <c r="P19">
+        <v>0.4220721368169787</v>
+      </c>
+      <c r="Q19">
+        <v>44.78597255133867</v>
+      </c>
+      <c r="R19">
+        <v>403.0737529620479</v>
+      </c>
+      <c r="S19">
+        <v>0.05736127682782462</v>
+      </c>
+      <c r="T19">
+        <v>0.06469294200439291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.695328</v>
+      </c>
+      <c r="I20">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J20">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>65.246217</v>
+      </c>
+      <c r="N20">
+        <v>195.738651</v>
+      </c>
+      <c r="O20">
+        <v>0.3386953408296025</v>
+      </c>
+      <c r="P20">
+        <v>0.3474821418529304</v>
+      </c>
+      <c r="Q20">
+        <v>36.871246191392</v>
+      </c>
+      <c r="R20">
+        <v>331.841215722528</v>
+      </c>
+      <c r="S20">
+        <v>0.04722420077730552</v>
+      </c>
+      <c r="T20">
+        <v>0.05326018964431573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.695328</v>
+      </c>
+      <c r="I21">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J21">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.6138845</v>
+      </c>
+      <c r="N21">
+        <v>29.227769</v>
+      </c>
+      <c r="O21">
+        <v>0.07586117355389271</v>
+      </c>
+      <c r="P21">
+        <v>0.05188616413680445</v>
+      </c>
+      <c r="Q21">
+        <v>8.258442527205334</v>
+      </c>
+      <c r="R21">
+        <v>49.550655163232</v>
+      </c>
+      <c r="S21">
+        <v>0.01057730313719726</v>
+      </c>
+      <c r="T21">
+        <v>0.007952831553029617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0982905</v>
+      </c>
+      <c r="H22">
+        <v>2.196581</v>
+      </c>
+      <c r="I22">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J22">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>30.93277266666666</v>
+      </c>
+      <c r="N22">
+        <v>92.79831799999999</v>
+      </c>
+      <c r="O22">
+        <v>0.1605730793731885</v>
+      </c>
+      <c r="P22">
+        <v>0.1647388399493432</v>
+      </c>
+      <c r="Q22">
+        <v>33.97317035845967</v>
+      </c>
+      <c r="R22">
+        <v>203.839022150758</v>
+      </c>
+      <c r="S22">
+        <v>0.04351238387011878</v>
+      </c>
+      <c r="T22">
+        <v>0.03271596312417987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0982905</v>
+      </c>
+      <c r="H23">
+        <v>2.196581</v>
+      </c>
+      <c r="I23">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J23">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.595096</v>
+      </c>
+      <c r="N23">
+        <v>7.785288</v>
+      </c>
+      <c r="O23">
+        <v>0.01347123196744936</v>
+      </c>
+      <c r="P23">
+        <v>0.01382071724394339</v>
+      </c>
+      <c r="Q23">
+        <v>2.850169283388</v>
+      </c>
+      <c r="R23">
+        <v>17.101015700328</v>
+      </c>
+      <c r="S23">
+        <v>0.00365045883693096</v>
+      </c>
+      <c r="T23">
+        <v>0.002744696246747922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0982905</v>
+      </c>
+      <c r="H24">
+        <v>2.196581</v>
+      </c>
+      <c r="I24">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J24">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>79.25187199999999</v>
+      </c>
+      <c r="N24">
+        <v>237.755616</v>
+      </c>
+      <c r="O24">
+        <v>0.4113991742758669</v>
+      </c>
+      <c r="P24">
+        <v>0.4220721368169787</v>
+      </c>
+      <c r="Q24">
+        <v>87.041578124816</v>
+      </c>
+      <c r="R24">
+        <v>522.249468748896</v>
+      </c>
+      <c r="S24">
+        <v>0.1114816933499652</v>
+      </c>
+      <c r="T24">
+        <v>0.08382052749730518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0982905</v>
+      </c>
+      <c r="H25">
+        <v>2.196581</v>
+      </c>
+      <c r="I25">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J25">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>65.246217</v>
+      </c>
+      <c r="N25">
+        <v>195.738651</v>
+      </c>
+      <c r="O25">
+        <v>0.3386953408296025</v>
+      </c>
+      <c r="P25">
+        <v>0.3474821418529304</v>
+      </c>
+      <c r="Q25">
+        <v>71.65930029203851</v>
+      </c>
+      <c r="R25">
+        <v>429.955801752231</v>
+      </c>
+      <c r="S25">
+        <v>0.09178027688531176</v>
+      </c>
+      <c r="T25">
+        <v>0.06900748446855162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0982905</v>
+      </c>
+      <c r="H26">
+        <v>2.196581</v>
+      </c>
+      <c r="I26">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J26">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.6138845</v>
+      </c>
+      <c r="N26">
+        <v>29.227769</v>
+      </c>
+      <c r="O26">
+        <v>0.07586117355389271</v>
+      </c>
+      <c r="P26">
+        <v>0.05188616413680445</v>
+      </c>
+      <c r="Q26">
+        <v>16.05029051444725</v>
+      </c>
+      <c r="R26">
+        <v>64.20116205778901</v>
+      </c>
+      <c r="S26">
+        <v>0.020556998205428</v>
+      </c>
+      <c r="T26">
+        <v>0.0103042235399789</v>
       </c>
     </row>
   </sheetData>
